--- a/biology/Botanique/Carpinus_coreana/Carpinus_coreana.xlsx
+++ b/biology/Botanique/Carpinus_coreana/Carpinus_coreana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carpinus coreana, ou Charme de Corée, est une espèce d'arbre originaire de Corée.
 C'est une plante décidue de la famille des Betulaceae. ses feuilles sont petites, ovales, doublement dentées et positionnées de façon alternées.
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Carpinus vient du mot latin "Carpinus", qui signifie charme. Le terme “coreana” signifie “de Corée” ou “coréen” en latin. Il est souvent utilisé dans les nomenclatures scientifiques pour indiquer qu’une espèce est originaire de Corée ou qu’elle a un lien avec la Corée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Carpinus vient du mot latin "Carpinus", qui signifie charme. Le terme “coreana” signifie “de Corée” ou “coréen” en latin. Il est souvent utilisé dans les nomenclatures scientifiques pour indiquer qu’une espèce est originaire de Corée ou qu’elle a un lien avec la Corée.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Carpinus coreana, également connu sous le nom de Charme de Corée, peut être cultivé comme un grand arbuste ou un petit arbre. Il peut atteindre une hauteur de 4 à 6 mètres et même des fois 8 mètres dans de bonnes conditions. Il possède des feuilles profondément nervurées, de couleur verte foncée sur la partie supérieure et plus claire sur le revers, le Carpinus coreana à une couronne qui peut prendre une forme sphérique très plate ou arrondie, avec des branches qui retombent gracieusement. Cette plante peut facilement s'adapter à divers conditions climatiques, elle est peu exigeante quant à la qualité du sol, mais préfère les sols limoneux[3]. le Carpinus coreana se pare de peu de couleur automnale, mais les feuilles peuvent devenir rouges vives en automne[4]. Le carpinus coreana peut résister à des températures allant de -14,9 à -12,3 °C, il doit être exposé à l’ombre pendant l’été pour une croissance optimale et nécessite une humidité constante[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Carpinus coreana, également connu sous le nom de Charme de Corée, peut être cultivé comme un grand arbuste ou un petit arbre. Il peut atteindre une hauteur de 4 à 6 mètres et même des fois 8 mètres dans de bonnes conditions. Il possède des feuilles profondément nervurées, de couleur verte foncée sur la partie supérieure et plus claire sur le revers, le Carpinus coreana à une couronne qui peut prendre une forme sphérique très plate ou arrondie, avec des branches qui retombent gracieusement. Cette plante peut facilement s'adapter à divers conditions climatiques, elle est peu exigeante quant à la qualité du sol, mais préfère les sols limoneux. le Carpinus coreana se pare de peu de couleur automnale, mais les feuilles peuvent devenir rouges vives en automne. Le carpinus coreana peut résister à des températures allant de -14,9 à -12,3 °C, il doit être exposé à l’ombre pendant l’été pour une croissance optimale et nécessite une humidité constante,.
 </t>
         </is>
       </c>
